--- a/python/or-tools/production_results_ortools.xlsx
+++ b/python/or-tools/production_results_ortools.xlsx
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>300.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001534997953336063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -502,10 +502,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -519,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>300.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001534997953336063</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
@@ -995,10 +995,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1165,10 +1165,10 @@
         <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>13</v>
       </c>
       <c r="C44" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>14</v>
       </c>
       <c r="C45" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>17</v>
       </c>
       <c r="C48" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="C49" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>19</v>
       </c>
       <c r="C50" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>22</v>
       </c>
       <c r="C53" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>23</v>
       </c>
       <c r="C54" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>24</v>
       </c>
       <c r="C55" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1386,10 +1386,10 @@
         <v>25</v>
       </c>
       <c r="C56" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D56" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1403,10 +1403,10 @@
         <v>26</v>
       </c>
       <c r="C57" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>27</v>
       </c>
       <c r="C58" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D58" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1437,10 +1437,10 @@
         <v>28</v>
       </c>
       <c r="C59" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>29</v>
       </c>
       <c r="C60" t="n">
-        <v>300.0000000000001</v>
+        <v>300</v>
       </c>
       <c r="D60" t="n">
-        <v>0.001534997953336063</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>360.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001841997544003275</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63">
@@ -1505,10 +1505,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D64" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D68" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D70" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -1641,10 +1641,10 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D72" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -1709,10 +1709,10 @@
         <v>14</v>
       </c>
       <c r="C75" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D75" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D76" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1743,10 +1743,10 @@
         <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D77" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>17</v>
       </c>
       <c r="C78" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D81" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>21</v>
       </c>
       <c r="C82" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>22</v>
       </c>
       <c r="C83" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>23</v>
       </c>
       <c r="C84" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D84" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -1879,10 +1879,10 @@
         <v>24</v>
       </c>
       <c r="C85" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -1896,10 +1896,10 @@
         <v>25</v>
       </c>
       <c r="C86" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>26</v>
       </c>
       <c r="C87" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>27</v>
       </c>
       <c r="C88" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -1947,10 +1947,10 @@
         <v>28</v>
       </c>
       <c r="C89" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="C90" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D90" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>360.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.001841997544003275</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93">
@@ -2015,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D95" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -2066,10 +2066,10 @@
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D96" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D98" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -2117,10 +2117,10 @@
         <v>8</v>
       </c>
       <c r="C99" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D99" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D100" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>10</v>
       </c>
       <c r="C101" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D101" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>11</v>
       </c>
       <c r="C102" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D102" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D103" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>13</v>
       </c>
       <c r="C104" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D104" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>14</v>
       </c>
       <c r="C105" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D105" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D106" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>16</v>
       </c>
       <c r="C107" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D107" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -2270,10 +2270,10 @@
         <v>17</v>
       </c>
       <c r="C108" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D108" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>18</v>
       </c>
       <c r="C109" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D109" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>19</v>
       </c>
       <c r="C110" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D110" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D111" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>21</v>
       </c>
       <c r="C112" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D112" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
         <v>22</v>
       </c>
       <c r="C113" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D113" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>23</v>
       </c>
       <c r="C114" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D114" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -2389,10 +2389,10 @@
         <v>24</v>
       </c>
       <c r="C115" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D115" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>25</v>
       </c>
       <c r="C116" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D116" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -2423,10 +2423,10 @@
         <v>26</v>
       </c>
       <c r="C117" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D117" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>27</v>
       </c>
       <c r="C118" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D118" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>28</v>
       </c>
       <c r="C119" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D119" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>29</v>
       </c>
       <c r="C120" t="n">
-        <v>360.0000000000001</v>
+        <v>360</v>
       </c>
       <c r="D120" t="n">
-        <v>0.001841997544003275</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -2508,13 +2508,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>340.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.001739664347114204</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123">
@@ -2525,10 +2525,10 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D123" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D124" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -2559,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D125" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -2576,10 +2576,10 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D126" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -2593,10 +2593,10 @@
         <v>6</v>
       </c>
       <c r="C127" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D127" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>7</v>
       </c>
       <c r="C128" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D128" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>8</v>
       </c>
       <c r="C129" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D129" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -2644,10 +2644,10 @@
         <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D130" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -2661,10 +2661,10 @@
         <v>10</v>
       </c>
       <c r="C131" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D131" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>11</v>
       </c>
       <c r="C132" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D132" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -2695,10 +2695,10 @@
         <v>12</v>
       </c>
       <c r="C133" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D133" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>13</v>
       </c>
       <c r="C134" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D134" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         <v>14</v>
       </c>
       <c r="C135" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D135" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>15</v>
       </c>
       <c r="C136" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D136" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="C137" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D137" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -2780,10 +2780,10 @@
         <v>17</v>
       </c>
       <c r="C138" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D138" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>18</v>
       </c>
       <c r="C139" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D139" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -2814,10 +2814,10 @@
         <v>19</v>
       </c>
       <c r="C140" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D140" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -2831,10 +2831,10 @@
         <v>20</v>
       </c>
       <c r="C141" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D141" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>21</v>
       </c>
       <c r="C142" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D142" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -2865,10 +2865,10 @@
         <v>22</v>
       </c>
       <c r="C143" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D143" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>23</v>
       </c>
       <c r="C144" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D144" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -2899,10 +2899,10 @@
         <v>24</v>
       </c>
       <c r="C145" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D145" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>25</v>
       </c>
       <c r="C146" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D146" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>26</v>
       </c>
       <c r="C147" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D147" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>27</v>
       </c>
       <c r="C148" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D148" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>28</v>
       </c>
       <c r="C149" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D149" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>29</v>
       </c>
       <c r="C150" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D150" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -3018,13 +3018,13 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>340.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0.001739664347114204</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153">
@@ -3035,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D153" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -3052,10 +3052,10 @@
         <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D154" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -3069,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D155" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D156" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>6</v>
       </c>
       <c r="C157" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D157" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D158" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -3137,10 +3137,10 @@
         <v>8</v>
       </c>
       <c r="C159" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D159" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -3154,10 +3154,10 @@
         <v>9</v>
       </c>
       <c r="C160" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D160" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>10</v>
       </c>
       <c r="C161" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D161" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -3188,10 +3188,10 @@
         <v>11</v>
       </c>
       <c r="C162" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D162" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>12</v>
       </c>
       <c r="C163" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D163" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -3222,10 +3222,10 @@
         <v>13</v>
       </c>
       <c r="C164" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D164" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -3239,10 +3239,10 @@
         <v>14</v>
       </c>
       <c r="C165" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D165" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -3256,10 +3256,10 @@
         <v>15</v>
       </c>
       <c r="C166" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D166" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -3273,10 +3273,10 @@
         <v>16</v>
       </c>
       <c r="C167" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D167" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>17</v>
       </c>
       <c r="C168" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D168" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>18</v>
       </c>
       <c r="C169" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D169" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -3324,10 +3324,10 @@
         <v>19</v>
       </c>
       <c r="C170" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D170" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>20</v>
       </c>
       <c r="C171" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D171" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -3358,10 +3358,10 @@
         <v>21</v>
       </c>
       <c r="C172" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D172" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -3375,10 +3375,10 @@
         <v>22</v>
       </c>
       <c r="C173" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D173" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>23</v>
       </c>
       <c r="C174" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D174" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         <v>24</v>
       </c>
       <c r="C175" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D175" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>25</v>
       </c>
       <c r="C176" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D176" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -3443,10 +3443,10 @@
         <v>26</v>
       </c>
       <c r="C177" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D177" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -3460,10 +3460,10 @@
         <v>27</v>
       </c>
       <c r="C178" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D178" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>28</v>
       </c>
       <c r="C179" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D179" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>29</v>
       </c>
       <c r="C180" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D180" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>340.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0.001739664347114204</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183">
@@ -3545,10 +3545,10 @@
         <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D183" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>3</v>
       </c>
       <c r="C184" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D184" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D185" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>5</v>
       </c>
       <c r="C186" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D186" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -3613,10 +3613,10 @@
         <v>6</v>
       </c>
       <c r="C187" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D187" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>7</v>
       </c>
       <c r="C188" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D188" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>8</v>
       </c>
       <c r="C189" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D189" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>9</v>
       </c>
       <c r="C190" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D190" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D191" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -3698,10 +3698,10 @@
         <v>11</v>
       </c>
       <c r="C192" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D192" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>12</v>
       </c>
       <c r="C193" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D193" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -3732,10 +3732,10 @@
         <v>13</v>
       </c>
       <c r="C194" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D194" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>14</v>
       </c>
       <c r="C195" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D195" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>15</v>
       </c>
       <c r="C196" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D196" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -3783,10 +3783,10 @@
         <v>16</v>
       </c>
       <c r="C197" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D197" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>17</v>
       </c>
       <c r="C198" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D198" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -3817,10 +3817,10 @@
         <v>18</v>
       </c>
       <c r="C199" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D199" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>19</v>
       </c>
       <c r="C200" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D200" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -3851,10 +3851,10 @@
         <v>20</v>
       </c>
       <c r="C201" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D201" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -3868,10 +3868,10 @@
         <v>21</v>
       </c>
       <c r="C202" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D202" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
@@ -3885,10 +3885,10 @@
         <v>22</v>
       </c>
       <c r="C203" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D203" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -3902,10 +3902,10 @@
         <v>23</v>
       </c>
       <c r="C204" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D204" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -3919,10 +3919,10 @@
         <v>24</v>
       </c>
       <c r="C205" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D205" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -3936,10 +3936,10 @@
         <v>25</v>
       </c>
       <c r="C206" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D206" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -3953,10 +3953,10 @@
         <v>26</v>
       </c>
       <c r="C207" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D207" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
@@ -3970,10 +3970,10 @@
         <v>27</v>
       </c>
       <c r="C208" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D208" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
@@ -3987,10 +3987,10 @@
         <v>28</v>
       </c>
       <c r="C209" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D209" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -4004,10 +4004,10 @@
         <v>29</v>
       </c>
       <c r="C210" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D210" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
@@ -4038,13 +4038,13 @@
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>340.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.001739664347114204</v>
+        <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="213">
@@ -4055,10 +4055,10 @@
         <v>2</v>
       </c>
       <c r="C213" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D213" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>3</v>
       </c>
       <c r="C214" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D214" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
@@ -4089,10 +4089,10 @@
         <v>4</v>
       </c>
       <c r="C215" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D215" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>5</v>
       </c>
       <c r="C216" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D216" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
@@ -4123,10 +4123,10 @@
         <v>6</v>
       </c>
       <c r="C217" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D217" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>7</v>
       </c>
       <c r="C218" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D218" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
@@ -4157,10 +4157,10 @@
         <v>8</v>
       </c>
       <c r="C219" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D219" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
@@ -4174,10 +4174,10 @@
         <v>9</v>
       </c>
       <c r="C220" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D220" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>10</v>
       </c>
       <c r="C221" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D221" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
@@ -4208,10 +4208,10 @@
         <v>11</v>
       </c>
       <c r="C222" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D222" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>12</v>
       </c>
       <c r="C223" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D223" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>13</v>
       </c>
       <c r="C224" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D224" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
@@ -4259,10 +4259,10 @@
         <v>14</v>
       </c>
       <c r="C225" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D225" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>15</v>
       </c>
       <c r="C226" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D226" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
@@ -4293,10 +4293,10 @@
         <v>16</v>
       </c>
       <c r="C227" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D227" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>17</v>
       </c>
       <c r="C228" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D228" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E228" t="n">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         <v>18</v>
       </c>
       <c r="C229" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D229" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>19</v>
       </c>
       <c r="C230" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D230" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
@@ -4361,10 +4361,10 @@
         <v>20</v>
       </c>
       <c r="C231" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D231" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -4378,10 +4378,10 @@
         <v>21</v>
       </c>
       <c r="C232" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D232" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
@@ -4395,10 +4395,10 @@
         <v>22</v>
       </c>
       <c r="C233" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D233" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
@@ -4412,10 +4412,10 @@
         <v>23</v>
       </c>
       <c r="C234" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D234" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>24</v>
       </c>
       <c r="C235" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D235" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -4446,10 +4446,10 @@
         <v>25</v>
       </c>
       <c r="C236" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D236" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
@@ -4463,10 +4463,10 @@
         <v>26</v>
       </c>
       <c r="C237" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D237" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
@@ -4480,10 +4480,10 @@
         <v>27</v>
       </c>
       <c r="C238" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D238" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
@@ -4497,10 +4497,10 @@
         <v>28</v>
       </c>
       <c r="C239" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D239" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
@@ -4514,10 +4514,10 @@
         <v>29</v>
       </c>
       <c r="C240" t="n">
-        <v>340.0000000000001</v>
+        <v>340</v>
       </c>
       <c r="D240" t="n">
-        <v>0.001739664347114204</v>
+        <v>1</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
@@ -4548,13 +4548,13 @@
         <v>1</v>
       </c>
       <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
         <v>104</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.0005321326238231684</v>
-      </c>
-      <c r="E242" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -4568,7 +4568,7 @@
         <v>104</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
@@ -4585,7 +4585,7 @@
         <v>104</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>104</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>104</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>104</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>104</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>104</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>104</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>104</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -4721,7 +4721,7 @@
         <v>104</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>104</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
@@ -4755,7 +4755,7 @@
         <v>104</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>104</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>104</v>
       </c>
       <c r="D256" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -4806,7 +4806,7 @@
         <v>104</v>
       </c>
       <c r="D257" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>104</v>
       </c>
       <c r="D258" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>104</v>
       </c>
       <c r="D259" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>104</v>
       </c>
       <c r="D260" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>104</v>
       </c>
       <c r="D261" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E261" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>104</v>
       </c>
       <c r="D262" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E262" t="n">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>104</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>104</v>
       </c>
       <c r="D264" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>104</v>
       </c>
       <c r="D265" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E265" t="n">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>104</v>
       </c>
       <c r="D266" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>104</v>
       </c>
       <c r="D267" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E267" t="n">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>104</v>
       </c>
       <c r="D268" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E268" t="n">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>104</v>
       </c>
       <c r="D269" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E269" t="n">
         <v>0</v>
@@ -5027,7 +5027,7 @@
         <v>104</v>
       </c>
       <c r="D270" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E270" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="D271" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E271" t="n">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="273">
@@ -5075,10 +5075,10 @@
         <v>2</v>
       </c>
       <c r="C273" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D273" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>3</v>
       </c>
       <c r="C274" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D274" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
         <v>0</v>
@@ -5109,13 +5109,13 @@
         <v>4</v>
       </c>
       <c r="C275" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="276">
@@ -5126,10 +5126,10 @@
         <v>5</v>
       </c>
       <c r="C276" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D276" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
@@ -5143,10 +5143,10 @@
         <v>6</v>
       </c>
       <c r="C277" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D277" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E277" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>7</v>
       </c>
       <c r="C278" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="279">
@@ -5177,10 +5177,10 @@
         <v>8</v>
       </c>
       <c r="C279" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D279" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E279" t="n">
         <v>0</v>
@@ -5194,10 +5194,10 @@
         <v>9</v>
       </c>
       <c r="C280" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D280" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E280" t="n">
         <v>0</v>
@@ -5211,13 +5211,13 @@
         <v>10</v>
       </c>
       <c r="C281" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="282">
@@ -5228,10 +5228,10 @@
         <v>11</v>
       </c>
       <c r="C282" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D282" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E282" t="n">
         <v>0</v>
@@ -5245,10 +5245,10 @@
         <v>12</v>
       </c>
       <c r="C283" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D283" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
@@ -5262,13 +5262,13 @@
         <v>13</v>
       </c>
       <c r="C284" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D284" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="285">
@@ -5279,10 +5279,10 @@
         <v>14</v>
       </c>
       <c r="C285" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D285" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E285" t="n">
         <v>0</v>
@@ -5296,10 +5296,10 @@
         <v>15</v>
       </c>
       <c r="C286" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D286" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E286" t="n">
         <v>0</v>
@@ -5313,13 +5313,13 @@
         <v>16</v>
       </c>
       <c r="C287" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D287" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="288">
@@ -5330,10 +5330,10 @@
         <v>17</v>
       </c>
       <c r="C288" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D288" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E288" t="n">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>18</v>
       </c>
       <c r="C289" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D289" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E289" t="n">
         <v>0</v>
@@ -5364,13 +5364,13 @@
         <v>19</v>
       </c>
       <c r="C290" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="291">
@@ -5381,10 +5381,10 @@
         <v>20</v>
       </c>
       <c r="C291" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D291" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E291" t="n">
         <v>0</v>
@@ -5398,10 +5398,10 @@
         <v>21</v>
       </c>
       <c r="C292" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D292" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E292" t="n">
         <v>0</v>
@@ -5415,13 +5415,13 @@
         <v>22</v>
       </c>
       <c r="C293" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="294">
@@ -5432,10 +5432,10 @@
         <v>23</v>
       </c>
       <c r="C294" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D294" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
@@ -5449,13 +5449,13 @@
         <v>24</v>
       </c>
       <c r="C295" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D295" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="296">
@@ -5466,10 +5466,10 @@
         <v>25</v>
       </c>
       <c r="C296" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D296" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E296" t="n">
         <v>0</v>
@@ -5483,10 +5483,10 @@
         <v>26</v>
       </c>
       <c r="C297" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D297" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E297" t="n">
         <v>0</v>
@@ -5500,13 +5500,13 @@
         <v>27</v>
       </c>
       <c r="C298" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D298" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="299">
@@ -5517,10 +5517,10 @@
         <v>28</v>
       </c>
       <c r="C299" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D299" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
@@ -5534,10 +5534,10 @@
         <v>29</v>
       </c>
       <c r="C300" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D300" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E300" t="n">
         <v>0</v>
@@ -5568,13 +5568,13 @@
         <v>1</v>
       </c>
       <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="n">
         <v>114</v>
-      </c>
-      <c r="D302" t="n">
-        <v>0.0005832992222677037</v>
-      </c>
-      <c r="E302" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -5588,7 +5588,7 @@
         <v>114</v>
       </c>
       <c r="D303" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E303" t="n">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>114</v>
       </c>
       <c r="D304" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>114</v>
       </c>
       <c r="D305" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
@@ -5639,7 +5639,7 @@
         <v>114</v>
       </c>
       <c r="D306" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E306" t="n">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>114</v>
       </c>
       <c r="D307" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E307" t="n">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>114</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
@@ -5690,7 +5690,7 @@
         <v>114</v>
       </c>
       <c r="D309" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E309" t="n">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>114</v>
       </c>
       <c r="D310" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E310" t="n">
         <v>0</v>
@@ -5724,7 +5724,7 @@
         <v>114</v>
       </c>
       <c r="D311" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>114</v>
       </c>
       <c r="D312" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E312" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>114</v>
       </c>
       <c r="D313" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>114</v>
       </c>
       <c r="D314" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E314" t="n">
         <v>0</v>
@@ -5792,7 +5792,7 @@
         <v>114</v>
       </c>
       <c r="D315" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E315" t="n">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>114</v>
       </c>
       <c r="D316" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
@@ -5826,7 +5826,7 @@
         <v>114</v>
       </c>
       <c r="D317" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E317" t="n">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>114</v>
       </c>
       <c r="D318" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E318" t="n">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>114</v>
       </c>
       <c r="D319" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
@@ -5877,7 +5877,7 @@
         <v>114</v>
       </c>
       <c r="D320" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>114</v>
       </c>
       <c r="D321" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>114</v>
       </c>
       <c r="D322" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E322" t="n">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>114</v>
       </c>
       <c r="D323" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E323" t="n">
         <v>0</v>
@@ -5945,7 +5945,7 @@
         <v>114</v>
       </c>
       <c r="D324" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E324" t="n">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>114</v>
       </c>
       <c r="D325" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E325" t="n">
         <v>0</v>
@@ -5979,7 +5979,7 @@
         <v>114</v>
       </c>
       <c r="D326" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E326" t="n">
         <v>0</v>
@@ -5996,7 +5996,7 @@
         <v>114</v>
       </c>
       <c r="D327" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E327" t="n">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>114</v>
       </c>
       <c r="D328" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>114</v>
       </c>
       <c r="D329" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E329" t="n">
         <v>0</v>
@@ -6047,7 +6047,7 @@
         <v>114</v>
       </c>
       <c r="D330" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E330" t="n">
         <v>0</v>
@@ -6078,13 +6078,13 @@
         <v>1</v>
       </c>
       <c r="C332" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+      <c r="E332" t="n">
         <v>104</v>
-      </c>
-      <c r="D332" t="n">
-        <v>0.0005321326238231684</v>
-      </c>
-      <c r="E332" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -6098,7 +6098,7 @@
         <v>104</v>
       </c>
       <c r="D333" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E333" t="n">
         <v>0</v>
@@ -6115,7 +6115,7 @@
         <v>104</v>
       </c>
       <c r="D334" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E334" t="n">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>104</v>
       </c>
       <c r="D335" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>104</v>
       </c>
       <c r="D336" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E336" t="n">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>104</v>
       </c>
       <c r="D337" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E337" t="n">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>104</v>
       </c>
       <c r="D338" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E338" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>104</v>
       </c>
       <c r="D339" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E339" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>104</v>
       </c>
       <c r="D340" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E340" t="n">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>104</v>
       </c>
       <c r="D341" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E341" t="n">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>104</v>
       </c>
       <c r="D342" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E342" t="n">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>104</v>
       </c>
       <c r="D343" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>104</v>
       </c>
       <c r="D344" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E344" t="n">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>104</v>
       </c>
       <c r="D345" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E345" t="n">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>104</v>
       </c>
       <c r="D346" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E346" t="n">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>104</v>
       </c>
       <c r="D347" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E347" t="n">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>104</v>
       </c>
       <c r="D348" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E348" t="n">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>104</v>
       </c>
       <c r="D349" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
@@ -6387,7 +6387,7 @@
         <v>104</v>
       </c>
       <c r="D350" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E350" t="n">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>104</v>
       </c>
       <c r="D351" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>104</v>
       </c>
       <c r="D352" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E352" t="n">
         <v>0</v>
@@ -6438,7 +6438,7 @@
         <v>104</v>
       </c>
       <c r="D353" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>104</v>
       </c>
       <c r="D354" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E354" t="n">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>104</v>
       </c>
       <c r="D355" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E355" t="n">
         <v>0</v>
@@ -6489,7 +6489,7 @@
         <v>104</v>
       </c>
       <c r="D356" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E356" t="n">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>104</v>
       </c>
       <c r="D357" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E357" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>104</v>
       </c>
       <c r="D358" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E358" t="n">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>104</v>
       </c>
       <c r="D359" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E359" t="n">
         <v>0</v>
@@ -6557,7 +6557,7 @@
         <v>104</v>
       </c>
       <c r="D360" t="n">
-        <v>0.0005321326238231684</v>
+        <v>1</v>
       </c>
       <c r="E360" t="n">
         <v>0</v>
@@ -6588,13 +6588,13 @@
         <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="363">
@@ -6605,10 +6605,10 @@
         <v>2</v>
       </c>
       <c r="C363" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D363" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E363" t="n">
         <v>0</v>
@@ -6622,10 +6622,10 @@
         <v>3</v>
       </c>
       <c r="C364" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D364" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E364" t="n">
         <v>0</v>
@@ -6639,13 +6639,13 @@
         <v>4</v>
       </c>
       <c r="C365" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D365" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="366">
@@ -6656,10 +6656,10 @@
         <v>5</v>
       </c>
       <c r="C366" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D366" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -6673,10 +6673,10 @@
         <v>6</v>
       </c>
       <c r="C367" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D367" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
@@ -6690,13 +6690,13 @@
         <v>7</v>
       </c>
       <c r="C368" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D368" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="369">
@@ -6707,10 +6707,10 @@
         <v>8</v>
       </c>
       <c r="C369" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D369" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E369" t="n">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         <v>9</v>
       </c>
       <c r="C370" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D370" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E370" t="n">
         <v>0</v>
@@ -6741,13 +6741,13 @@
         <v>10</v>
       </c>
       <c r="C371" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="372">
@@ -6758,10 +6758,10 @@
         <v>11</v>
       </c>
       <c r="C372" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D372" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E372" t="n">
         <v>0</v>
@@ -6775,10 +6775,10 @@
         <v>12</v>
       </c>
       <c r="C373" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D373" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -6792,13 +6792,13 @@
         <v>13</v>
       </c>
       <c r="C374" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D374" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="375">
@@ -6809,10 +6809,10 @@
         <v>14</v>
       </c>
       <c r="C375" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D375" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -6826,10 +6826,10 @@
         <v>15</v>
       </c>
       <c r="C376" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D376" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -6843,13 +6843,13 @@
         <v>16</v>
       </c>
       <c r="C377" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D377" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="378">
@@ -6860,10 +6860,10 @@
         <v>17</v>
       </c>
       <c r="C378" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D378" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -6877,10 +6877,10 @@
         <v>18</v>
       </c>
       <c r="C379" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D379" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -6894,13 +6894,13 @@
         <v>19</v>
       </c>
       <c r="C380" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D380" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="381">
@@ -6911,10 +6911,10 @@
         <v>20</v>
       </c>
       <c r="C381" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D381" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -6928,13 +6928,13 @@
         <v>21</v>
       </c>
       <c r="C382" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D382" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="383">
@@ -6945,10 +6945,10 @@
         <v>22</v>
       </c>
       <c r="C383" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D383" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E383" t="n">
         <v>0</v>
@@ -6962,10 +6962,10 @@
         <v>23</v>
       </c>
       <c r="C384" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D384" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E384" t="n">
         <v>0</v>
@@ -6979,13 +6979,13 @@
         <v>24</v>
       </c>
       <c r="C385" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D385" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="386">
@@ -6996,10 +6996,10 @@
         <v>25</v>
       </c>
       <c r="C386" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D386" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
@@ -7013,10 +7013,10 @@
         <v>26</v>
       </c>
       <c r="C387" t="n">
-        <v>69.00000000000001</v>
+        <v>138</v>
       </c>
       <c r="D387" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E387" t="n">
         <v>0</v>
@@ -7030,13 +7030,13 @@
         <v>27</v>
       </c>
       <c r="C388" t="n">
-        <v>69.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="D388" t="n">
-        <v>0.0003530495292672944</v>
+        <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="389">
@@ -7047,10 +7047,10 @@
         <v>28</v>
       </c>
       <c r="C389" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D389" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E389" t="n">
         <v>0</v>
@@ -7064,10 +7064,10 @@
         <v>29</v>
       </c>
       <c r="C390" t="n">
-        <v>69.00000000000001</v>
+        <v>69</v>
       </c>
       <c r="D390" t="n">
-        <v>0.0003530495292672944</v>
+        <v>1</v>
       </c>
       <c r="E390" t="n">
         <v>0</v>
@@ -7098,13 +7098,13 @@
         <v>1</v>
       </c>
       <c r="C392" t="n">
+        <v>0</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E392" t="n">
         <v>114</v>
-      </c>
-      <c r="D392" t="n">
-        <v>0.0005832992222677037</v>
-      </c>
-      <c r="E392" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -7118,7 +7118,7 @@
         <v>114</v>
       </c>
       <c r="D393" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E393" t="n">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>114</v>
       </c>
       <c r="D394" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E394" t="n">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>114</v>
       </c>
       <c r="D395" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E395" t="n">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>114</v>
       </c>
       <c r="D396" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E396" t="n">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>114</v>
       </c>
       <c r="D397" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E397" t="n">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>114</v>
       </c>
       <c r="D398" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E398" t="n">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>114</v>
       </c>
       <c r="D399" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E399" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>114</v>
       </c>
       <c r="D400" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E400" t="n">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>114</v>
       </c>
       <c r="D401" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E401" t="n">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>114</v>
       </c>
       <c r="D402" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E402" t="n">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>114</v>
       </c>
       <c r="D403" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E403" t="n">
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>114</v>
       </c>
       <c r="D404" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E404" t="n">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>114</v>
       </c>
       <c r="D405" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E405" t="n">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>114</v>
       </c>
       <c r="D406" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E406" t="n">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>114</v>
       </c>
       <c r="D407" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E407" t="n">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>114</v>
       </c>
       <c r="D408" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E408" t="n">
         <v>0</v>
@@ -7390,7 +7390,7 @@
         <v>114</v>
       </c>
       <c r="D409" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E409" t="n">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>114</v>
       </c>
       <c r="D410" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E410" t="n">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>114</v>
       </c>
       <c r="D411" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E411" t="n">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         <v>114</v>
       </c>
       <c r="D412" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E412" t="n">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>114</v>
       </c>
       <c r="D413" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E413" t="n">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>114</v>
       </c>
       <c r="D414" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E414" t="n">
         <v>0</v>
@@ -7492,7 +7492,7 @@
         <v>114</v>
       </c>
       <c r="D415" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E415" t="n">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>114</v>
       </c>
       <c r="D416" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E416" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>114</v>
       </c>
       <c r="D417" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E417" t="n">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>114</v>
       </c>
       <c r="D418" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E418" t="n">
         <v>0</v>
@@ -7560,7 +7560,7 @@
         <v>114</v>
       </c>
       <c r="D419" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E419" t="n">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>114</v>
       </c>
       <c r="D420" t="n">
-        <v>0.0005832992222677037</v>
+        <v>1</v>
       </c>
       <c r="E420" t="n">
         <v>0</v>
@@ -7608,13 +7608,13 @@
         <v>1</v>
       </c>
       <c r="C422" t="n">
+        <v>0</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
+      <c r="E422" t="n">
         <v>150</v>
-      </c>
-      <c r="D422" t="n">
-        <v>0.0007674989766680313</v>
-      </c>
-      <c r="E422" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -7628,7 +7628,7 @@
         <v>150</v>
       </c>
       <c r="D423" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E423" t="n">
         <v>0</v>
@@ -7645,7 +7645,7 @@
         <v>150</v>
       </c>
       <c r="D424" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>150</v>
       </c>
       <c r="D425" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E425" t="n">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>150</v>
       </c>
       <c r="D426" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E426" t="n">
         <v>0</v>
@@ -7696,7 +7696,7 @@
         <v>150</v>
       </c>
       <c r="D427" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E427" t="n">
         <v>0</v>
@@ -7713,7 +7713,7 @@
         <v>150</v>
       </c>
       <c r="D428" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E428" t="n">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>150</v>
       </c>
       <c r="D429" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E429" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         <v>150</v>
       </c>
       <c r="D430" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E430" t="n">
         <v>0</v>
@@ -7764,7 +7764,7 @@
         <v>150</v>
       </c>
       <c r="D431" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E431" t="n">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>150</v>
       </c>
       <c r="D432" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E432" t="n">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>150</v>
       </c>
       <c r="D433" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E433" t="n">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>150</v>
       </c>
       <c r="D434" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E434" t="n">
         <v>0</v>
@@ -7832,7 +7832,7 @@
         <v>150</v>
       </c>
       <c r="D435" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E435" t="n">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>150</v>
       </c>
       <c r="D436" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E436" t="n">
         <v>0</v>
@@ -7866,7 +7866,7 @@
         <v>150</v>
       </c>
       <c r="D437" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E437" t="n">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>150</v>
       </c>
       <c r="D438" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E438" t="n">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>150</v>
       </c>
       <c r="D439" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E439" t="n">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>150</v>
       </c>
       <c r="D440" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E440" t="n">
         <v>0</v>
@@ -7934,7 +7934,7 @@
         <v>150</v>
       </c>
       <c r="D441" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E441" t="n">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>150</v>
       </c>
       <c r="D442" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E442" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>150</v>
       </c>
       <c r="D443" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E443" t="n">
         <v>0</v>
@@ -7985,7 +7985,7 @@
         <v>150</v>
       </c>
       <c r="D444" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E444" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>150</v>
       </c>
       <c r="D445" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E445" t="n">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>150</v>
       </c>
       <c r="D446" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E446" t="n">
         <v>0</v>
@@ -8036,7 +8036,7 @@
         <v>150</v>
       </c>
       <c r="D447" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E447" t="n">
         <v>0</v>
@@ -8053,7 +8053,7 @@
         <v>150</v>
       </c>
       <c r="D448" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E448" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>150</v>
       </c>
       <c r="D449" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E449" t="n">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>150</v>
       </c>
       <c r="D450" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E450" t="n">
         <v>0</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="D451" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E451" t="n">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>160.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D452" t="n">
-        <v>0.0008186655751125668</v>
+        <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="453">
@@ -8135,10 +8135,10 @@
         <v>2</v>
       </c>
       <c r="C453" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D453" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E453" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>3</v>
       </c>
       <c r="C454" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D454" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E454" t="n">
         <v>0</v>
@@ -8169,10 +8169,10 @@
         <v>4</v>
       </c>
       <c r="C455" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D455" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E455" t="n">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>5</v>
       </c>
       <c r="C456" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D456" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E456" t="n">
         <v>0</v>
@@ -8203,10 +8203,10 @@
         <v>6</v>
       </c>
       <c r="C457" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D457" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E457" t="n">
         <v>0</v>
@@ -8220,10 +8220,10 @@
         <v>7</v>
       </c>
       <c r="C458" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D458" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E458" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>8</v>
       </c>
       <c r="C459" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D459" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E459" t="n">
         <v>0</v>
@@ -8254,10 +8254,10 @@
         <v>9</v>
       </c>
       <c r="C460" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D460" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E460" t="n">
         <v>0</v>
@@ -8271,10 +8271,10 @@
         <v>10</v>
       </c>
       <c r="C461" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D461" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E461" t="n">
         <v>0</v>
@@ -8288,10 +8288,10 @@
         <v>11</v>
       </c>
       <c r="C462" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D462" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E462" t="n">
         <v>0</v>
@@ -8305,10 +8305,10 @@
         <v>12</v>
       </c>
       <c r="C463" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D463" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E463" t="n">
         <v>0</v>
@@ -8322,10 +8322,10 @@
         <v>13</v>
       </c>
       <c r="C464" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D464" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E464" t="n">
         <v>0</v>
@@ -8339,10 +8339,10 @@
         <v>14</v>
       </c>
       <c r="C465" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D465" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E465" t="n">
         <v>0</v>
@@ -8356,10 +8356,10 @@
         <v>15</v>
       </c>
       <c r="C466" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D466" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E466" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>16</v>
       </c>
       <c r="C467" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D467" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E467" t="n">
         <v>0</v>
@@ -8390,10 +8390,10 @@
         <v>17</v>
       </c>
       <c r="C468" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D468" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E468" t="n">
         <v>0</v>
@@ -8407,10 +8407,10 @@
         <v>18</v>
       </c>
       <c r="C469" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D469" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E469" t="n">
         <v>0</v>
@@ -8424,10 +8424,10 @@
         <v>19</v>
       </c>
       <c r="C470" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D470" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E470" t="n">
         <v>0</v>
@@ -8441,10 +8441,10 @@
         <v>20</v>
       </c>
       <c r="C471" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D471" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E471" t="n">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         <v>21</v>
       </c>
       <c r="C472" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D472" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E472" t="n">
         <v>0</v>
@@ -8475,10 +8475,10 @@
         <v>22</v>
       </c>
       <c r="C473" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D473" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E473" t="n">
         <v>0</v>
@@ -8492,10 +8492,10 @@
         <v>23</v>
       </c>
       <c r="C474" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D474" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E474" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>24</v>
       </c>
       <c r="C475" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D475" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E475" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>25</v>
       </c>
       <c r="C476" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D476" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E476" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>26</v>
       </c>
       <c r="C477" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D477" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E477" t="n">
         <v>0</v>
@@ -8560,10 +8560,10 @@
         <v>27</v>
       </c>
       <c r="C478" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D478" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E478" t="n">
         <v>0</v>
@@ -8577,10 +8577,10 @@
         <v>28</v>
       </c>
       <c r="C479" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D479" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E479" t="n">
         <v>0</v>
@@ -8594,10 +8594,10 @@
         <v>29</v>
       </c>
       <c r="C480" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D480" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E480" t="n">
         <v>0</v>
@@ -8628,13 +8628,13 @@
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D482" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="483">
@@ -8645,13 +8645,13 @@
         <v>2</v>
       </c>
       <c r="C483" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D483" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E483" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="484">
@@ -8662,13 +8662,13 @@
         <v>3</v>
       </c>
       <c r="C484" t="n">
+        <v>0</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
+      <c r="E484" t="n">
         <v>18</v>
-      </c>
-      <c r="D484" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E484" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -8679,10 +8679,10 @@
         <v>4</v>
       </c>
       <c r="C485" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D485" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E485" t="n">
         <v>0</v>
@@ -8696,13 +8696,13 @@
         <v>5</v>
       </c>
       <c r="C486" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D486" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="487">
@@ -8713,13 +8713,13 @@
         <v>6</v>
       </c>
       <c r="C487" t="n">
+        <v>0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+      <c r="E487" t="n">
         <v>18</v>
-      </c>
-      <c r="D487" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E487" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -8730,10 +8730,10 @@
         <v>7</v>
       </c>
       <c r="C488" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D488" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E488" t="n">
         <v>0</v>
@@ -8747,13 +8747,13 @@
         <v>8</v>
       </c>
       <c r="C489" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D489" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E489" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="490">
@@ -8764,13 +8764,13 @@
         <v>9</v>
       </c>
       <c r="C490" t="n">
+        <v>0</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0</v>
+      </c>
+      <c r="E490" t="n">
         <v>18</v>
-      </c>
-      <c r="D490" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E490" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -8781,10 +8781,10 @@
         <v>10</v>
       </c>
       <c r="C491" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D491" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E491" t="n">
         <v>0</v>
@@ -8798,13 +8798,13 @@
         <v>11</v>
       </c>
       <c r="C492" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D492" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="493">
@@ -8815,13 +8815,13 @@
         <v>12</v>
       </c>
       <c r="C493" t="n">
+        <v>0</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0</v>
+      </c>
+      <c r="E493" t="n">
         <v>18</v>
-      </c>
-      <c r="D493" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E493" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -8832,10 +8832,10 @@
         <v>13</v>
       </c>
       <c r="C494" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D494" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E494" t="n">
         <v>0</v>
@@ -8849,13 +8849,13 @@
         <v>14</v>
       </c>
       <c r="C495" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D495" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E495" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="496">
@@ -8866,13 +8866,13 @@
         <v>15</v>
       </c>
       <c r="C496" t="n">
+        <v>0</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
+      <c r="E496" t="n">
         <v>18</v>
-      </c>
-      <c r="D496" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E496" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -8883,10 +8883,10 @@
         <v>16</v>
       </c>
       <c r="C497" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D497" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E497" t="n">
         <v>0</v>
@@ -8900,13 +8900,13 @@
         <v>17</v>
       </c>
       <c r="C498" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D498" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="499">
@@ -8917,13 +8917,13 @@
         <v>18</v>
       </c>
       <c r="C499" t="n">
+        <v>0</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
+      <c r="E499" t="n">
         <v>18</v>
-      </c>
-      <c r="D499" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E499" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -8934,10 +8934,10 @@
         <v>19</v>
       </c>
       <c r="C500" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D500" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E500" t="n">
         <v>0</v>
@@ -8951,13 +8951,13 @@
         <v>20</v>
       </c>
       <c r="C501" t="n">
+        <v>0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+      <c r="E501" t="n">
         <v>18</v>
-      </c>
-      <c r="D501" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E501" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -8968,10 +8968,10 @@
         <v>21</v>
       </c>
       <c r="C502" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D502" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E502" t="n">
         <v>0</v>
@@ -8985,13 +8985,13 @@
         <v>22</v>
       </c>
       <c r="C503" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D503" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E503" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="504">
@@ -9002,13 +9002,13 @@
         <v>23</v>
       </c>
       <c r="C504" t="n">
+        <v>0</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0</v>
+      </c>
+      <c r="E504" t="n">
         <v>18</v>
-      </c>
-      <c r="D504" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E504" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -9019,10 +9019,10 @@
         <v>24</v>
       </c>
       <c r="C505" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D505" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E505" t="n">
         <v>0</v>
@@ -9036,13 +9036,13 @@
         <v>25</v>
       </c>
       <c r="C506" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D506" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="507">
@@ -9053,13 +9053,13 @@
         <v>26</v>
       </c>
       <c r="C507" t="n">
+        <v>0</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
+      <c r="E507" t="n">
         <v>18</v>
-      </c>
-      <c r="D507" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E507" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -9070,10 +9070,10 @@
         <v>27</v>
       </c>
       <c r="C508" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D508" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E508" t="n">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>28</v>
       </c>
       <c r="C509" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D509" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E509" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="510">
@@ -9104,13 +9104,13 @@
         <v>29</v>
       </c>
       <c r="C510" t="n">
+        <v>0</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E510" t="n">
         <v>18</v>
-      </c>
-      <c r="D510" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E510" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -9138,13 +9138,13 @@
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D512" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="513">
@@ -9155,13 +9155,13 @@
         <v>2</v>
       </c>
       <c r="C513" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D513" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E513" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="514">
@@ -9172,13 +9172,13 @@
         <v>3</v>
       </c>
       <c r="C514" t="n">
+        <v>0</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+      <c r="E514" t="n">
         <v>18</v>
-      </c>
-      <c r="D514" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E514" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -9189,10 +9189,10 @@
         <v>4</v>
       </c>
       <c r="C515" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D515" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E515" t="n">
         <v>0</v>
@@ -9206,13 +9206,13 @@
         <v>5</v>
       </c>
       <c r="C516" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D516" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="517">
@@ -9223,13 +9223,13 @@
         <v>6</v>
       </c>
       <c r="C517" t="n">
+        <v>0</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+      <c r="E517" t="n">
         <v>18</v>
-      </c>
-      <c r="D517" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E517" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -9240,10 +9240,10 @@
         <v>7</v>
       </c>
       <c r="C518" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D518" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E518" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>8</v>
       </c>
       <c r="C519" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D519" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E519" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="520">
@@ -9274,13 +9274,13 @@
         <v>9</v>
       </c>
       <c r="C520" t="n">
+        <v>0</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+      <c r="E520" t="n">
         <v>18</v>
-      </c>
-      <c r="D520" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E520" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -9291,10 +9291,10 @@
         <v>10</v>
       </c>
       <c r="C521" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D521" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E521" t="n">
         <v>0</v>
@@ -9308,13 +9308,13 @@
         <v>11</v>
       </c>
       <c r="C522" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D522" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="523">
@@ -9325,13 +9325,13 @@
         <v>12</v>
       </c>
       <c r="C523" t="n">
+        <v>0</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
+      <c r="E523" t="n">
         <v>18</v>
-      </c>
-      <c r="D523" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E523" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -9342,10 +9342,10 @@
         <v>13</v>
       </c>
       <c r="C524" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D524" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E524" t="n">
         <v>0</v>
@@ -9359,13 +9359,13 @@
         <v>14</v>
       </c>
       <c r="C525" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D525" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E525" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="526">
@@ -9376,13 +9376,13 @@
         <v>15</v>
       </c>
       <c r="C526" t="n">
+        <v>0</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+      <c r="E526" t="n">
         <v>18</v>
-      </c>
-      <c r="D526" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E526" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -9393,10 +9393,10 @@
         <v>16</v>
       </c>
       <c r="C527" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D527" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E527" t="n">
         <v>0</v>
@@ -9410,13 +9410,13 @@
         <v>17</v>
       </c>
       <c r="C528" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D528" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="529">
@@ -9427,13 +9427,13 @@
         <v>18</v>
       </c>
       <c r="C529" t="n">
+        <v>0</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0</v>
+      </c>
+      <c r="E529" t="n">
         <v>18</v>
-      </c>
-      <c r="D529" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E529" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -9444,10 +9444,10 @@
         <v>19</v>
       </c>
       <c r="C530" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D530" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E530" t="n">
         <v>0</v>
@@ -9461,13 +9461,13 @@
         <v>20</v>
       </c>
       <c r="C531" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D531" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E531" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="532">
@@ -9478,13 +9478,13 @@
         <v>21</v>
       </c>
       <c r="C532" t="n">
+        <v>0</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0</v>
+      </c>
+      <c r="E532" t="n">
         <v>18</v>
-      </c>
-      <c r="D532" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E532" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -9495,10 +9495,10 @@
         <v>22</v>
       </c>
       <c r="C533" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D533" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E533" t="n">
         <v>0</v>
@@ -9512,13 +9512,13 @@
         <v>23</v>
       </c>
       <c r="C534" t="n">
+        <v>0</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0</v>
+      </c>
+      <c r="E534" t="n">
         <v>18</v>
-      </c>
-      <c r="D534" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E534" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -9529,10 +9529,10 @@
         <v>24</v>
       </c>
       <c r="C535" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D535" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E535" t="n">
         <v>0</v>
@@ -9546,13 +9546,13 @@
         <v>25</v>
       </c>
       <c r="C536" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D536" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="537">
@@ -9563,13 +9563,13 @@
         <v>26</v>
       </c>
       <c r="C537" t="n">
+        <v>0</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+      <c r="E537" t="n">
         <v>18</v>
-      </c>
-      <c r="D537" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E537" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -9580,10 +9580,10 @@
         <v>27</v>
       </c>
       <c r="C538" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D538" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>1</v>
       </c>
       <c r="E538" t="n">
         <v>0</v>
@@ -9597,13 +9597,13 @@
         <v>28</v>
       </c>
       <c r="C539" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D539" t="n">
-        <v>9.209987720016374e-05</v>
+        <v>0</v>
       </c>
       <c r="E539" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="540">
@@ -9614,13 +9614,13 @@
         <v>29</v>
       </c>
       <c r="C540" t="n">
+        <v>0</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0</v>
+      </c>
+      <c r="E540" t="n">
         <v>18</v>
-      </c>
-      <c r="D540" t="n">
-        <v>9.209987720016374e-05</v>
-      </c>
-      <c r="E540" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="D541" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E541" t="n">
         <v>0</v>
@@ -9648,13 +9648,13 @@
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>160.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="D542" t="n">
-        <v>0.0008186655751125668</v>
+        <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="543">
@@ -9665,10 +9665,10 @@
         <v>2</v>
       </c>
       <c r="C543" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D543" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E543" t="n">
         <v>0</v>
@@ -9682,10 +9682,10 @@
         <v>3</v>
       </c>
       <c r="C544" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D544" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E544" t="n">
         <v>0</v>
@@ -9699,10 +9699,10 @@
         <v>4</v>
       </c>
       <c r="C545" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D545" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E545" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>5</v>
       </c>
       <c r="C546" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D546" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E546" t="n">
         <v>0</v>
@@ -9733,10 +9733,10 @@
         <v>6</v>
       </c>
       <c r="C547" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D547" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E547" t="n">
         <v>0</v>
@@ -9750,10 +9750,10 @@
         <v>7</v>
       </c>
       <c r="C548" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D548" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E548" t="n">
         <v>0</v>
@@ -9767,10 +9767,10 @@
         <v>8</v>
       </c>
       <c r="C549" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D549" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E549" t="n">
         <v>0</v>
@@ -9784,10 +9784,10 @@
         <v>9</v>
       </c>
       <c r="C550" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D550" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E550" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>10</v>
       </c>
       <c r="C551" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D551" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E551" t="n">
         <v>0</v>
@@ -9818,10 +9818,10 @@
         <v>11</v>
       </c>
       <c r="C552" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D552" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E552" t="n">
         <v>0</v>
@@ -9835,10 +9835,10 @@
         <v>12</v>
       </c>
       <c r="C553" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D553" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E553" t="n">
         <v>0</v>
@@ -9852,10 +9852,10 @@
         <v>13</v>
       </c>
       <c r="C554" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D554" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E554" t="n">
         <v>0</v>
@@ -9869,10 +9869,10 @@
         <v>14</v>
       </c>
       <c r="C555" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D555" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E555" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>15</v>
       </c>
       <c r="C556" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D556" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E556" t="n">
         <v>0</v>
@@ -9903,10 +9903,10 @@
         <v>16</v>
       </c>
       <c r="C557" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D557" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E557" t="n">
         <v>0</v>
@@ -9920,10 +9920,10 @@
         <v>17</v>
       </c>
       <c r="C558" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D558" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E558" t="n">
         <v>0</v>
@@ -9937,10 +9937,10 @@
         <v>18</v>
       </c>
       <c r="C559" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D559" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E559" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>19</v>
       </c>
       <c r="C560" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D560" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E560" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>20</v>
       </c>
       <c r="C561" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D561" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E561" t="n">
         <v>0</v>
@@ -9988,10 +9988,10 @@
         <v>21</v>
       </c>
       <c r="C562" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D562" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E562" t="n">
         <v>0</v>
@@ -10005,10 +10005,10 @@
         <v>22</v>
       </c>
       <c r="C563" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D563" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E563" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>23</v>
       </c>
       <c r="C564" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D564" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E564" t="n">
         <v>0</v>
@@ -10039,10 +10039,10 @@
         <v>24</v>
       </c>
       <c r="C565" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D565" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E565" t="n">
         <v>0</v>
@@ -10056,10 +10056,10 @@
         <v>25</v>
       </c>
       <c r="C566" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D566" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E566" t="n">
         <v>0</v>
@@ -10073,10 +10073,10 @@
         <v>26</v>
       </c>
       <c r="C567" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D567" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E567" t="n">
         <v>0</v>
@@ -10090,10 +10090,10 @@
         <v>27</v>
       </c>
       <c r="C568" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D568" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E568" t="n">
         <v>0</v>
@@ -10107,10 +10107,10 @@
         <v>28</v>
       </c>
       <c r="C569" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D569" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E569" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>29</v>
       </c>
       <c r="C570" t="n">
-        <v>160.0000000000001</v>
+        <v>160</v>
       </c>
       <c r="D570" t="n">
-        <v>0.0008186655751125668</v>
+        <v>1</v>
       </c>
       <c r="E570" t="n">
         <v>0</v>
@@ -10158,13 +10158,13 @@
         <v>1</v>
       </c>
       <c r="C572" t="n">
+        <v>0</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0</v>
+      </c>
+      <c r="E572" t="n">
         <v>150</v>
-      </c>
-      <c r="D572" t="n">
-        <v>0.0007674989766680313</v>
-      </c>
-      <c r="E572" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -10178,7 +10178,7 @@
         <v>150</v>
       </c>
       <c r="D573" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
@@ -10195,7 +10195,7 @@
         <v>150</v>
       </c>
       <c r="D574" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E574" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>150</v>
       </c>
       <c r="D575" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E575" t="n">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>150</v>
       </c>
       <c r="D576" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E576" t="n">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>150</v>
       </c>
       <c r="D577" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E577" t="n">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>150</v>
       </c>
       <c r="D578" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E578" t="n">
         <v>0</v>
@@ -10280,7 +10280,7 @@
         <v>150</v>
       </c>
       <c r="D579" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E579" t="n">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>150</v>
       </c>
       <c r="D580" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E580" t="n">
         <v>0</v>
@@ -10314,7 +10314,7 @@
         <v>150</v>
       </c>
       <c r="D581" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E581" t="n">
         <v>0</v>
@@ -10331,7 +10331,7 @@
         <v>150</v>
       </c>
       <c r="D582" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E582" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>150</v>
       </c>
       <c r="D583" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E583" t="n">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>150</v>
       </c>
       <c r="D584" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E584" t="n">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>150</v>
       </c>
       <c r="D585" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E585" t="n">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>150</v>
       </c>
       <c r="D586" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E586" t="n">
         <v>0</v>
@@ -10416,7 +10416,7 @@
         <v>150</v>
       </c>
       <c r="D587" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E587" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>150</v>
       </c>
       <c r="D588" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E588" t="n">
         <v>0</v>
@@ -10450,7 +10450,7 @@
         <v>150</v>
       </c>
       <c r="D589" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E589" t="n">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>150</v>
       </c>
       <c r="D590" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E590" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>150</v>
       </c>
       <c r="D591" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E591" t="n">
         <v>0</v>
@@ -10501,7 +10501,7 @@
         <v>150</v>
       </c>
       <c r="D592" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E592" t="n">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>150</v>
       </c>
       <c r="D593" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E593" t="n">
         <v>0</v>
@@ -10535,7 +10535,7 @@
         <v>150</v>
       </c>
       <c r="D594" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E594" t="n">
         <v>0</v>
@@ -10552,7 +10552,7 @@
         <v>150</v>
       </c>
       <c r="D595" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E595" t="n">
         <v>0</v>
@@ -10569,7 +10569,7 @@
         <v>150</v>
       </c>
       <c r="D596" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E596" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>150</v>
       </c>
       <c r="D597" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E597" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>150</v>
       </c>
       <c r="D598" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E598" t="n">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>150</v>
       </c>
       <c r="D599" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E599" t="n">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>150</v>
       </c>
       <c r="D600" t="n">
-        <v>0.0007674989766680313</v>
+        <v>1</v>
       </c>
       <c r="E600" t="n">
         <v>0</v>
